--- a/biology/Zoologie/Anteosauridae/Anteosauridae.xlsx
+++ b/biology/Zoologie/Anteosauridae/Anteosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Anteosauridae (antéosauridés en français) forment une famille éteinte de grands thérapsides  dinocéphales carnivores qui ont vécu durant une partie du Permien moyen, au Wordien et au Capitanien, soit il y a environ entre 266,9 à 259,51 millions d'années, en Russie, Kazakhstan, Chine, Brésil et Afrique du Sud, occupant ainsi une grande partie de la Pangée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Anteosauridae (antéosauridés en français) forment une famille éteinte de grands thérapsides  dinocéphales carnivores qui ont vécu durant une partie du Permien moyen, au Wordien et au Capitanien, soit il y a environ entre 266,9 à 259,51 millions d'années, en Russie, Kazakhstan, Chine, Brésil et Afrique du Sud, occupant ainsi une grande partie de la Pangée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les antéosauridés sont les plus grands prédateurs du Permien, bien plus grands que les gorgonopsiens. Les genres Anteosaurus et Titanophoneus devaient atteindre jusqu'à 6 mètres de long dont environ 80 centimètres pour leur crâne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antéosauridés sont les plus grands prédateurs du Permien, bien plus grands que les gorgonopsiens. Les genres Anteosaurus et Titanophoneus devaient atteindre jusqu'à 6 mètres de long dont environ 80 centimètres pour leur crâne.
 Ils sont caractérisés par une mandibule longue et robuste qui porte des incisives pointues et des canines puissantes souvent très longues et recourbées vers l'arrière.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les études phylogénétiques menées en 2010 par C. F. Kammerer[2], et en 2011 par J. C. Cisneros et al.[1], ont conduit au cladogramme suivant :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études phylogénétiques menées en 2010 par C. F. Kammerer, et en 2011 par J. C. Cisneros et al., ont conduit au cladogramme suivant :
 </t>
         </is>
       </c>
